--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
     <t>EJECUTIVO DE VENTAS:</t>
   </si>
   <si>
-    <t>Alma Yesenia Garcia Enriquez</t>
-  </si>
-  <si>
     <t>META COMISIONABLE:</t>
   </si>
   <si>
@@ -66,17 +63,20 @@
   <si>
     <t>MAYO</t>
   </si>
+  <si>
+    <t>Judith Adriana Jaramillo Chávez</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +363,11 @@
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,6 +446,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -475,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,37 +657,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="G2" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="28">
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
@@ -691,7 +698,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,10 +721,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -741,7 +748,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="11">
         <v>0</v>
@@ -762,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -786,7 +793,7 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>825</v>
       </c>
@@ -809,7 +816,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -833,7 +840,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>0</v>
       </c>
@@ -856,7 +863,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -880,7 +887,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>825</v>
       </c>
@@ -899,7 +906,7 @@
         <v>1237.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -911,7 +918,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -924,12 +931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="21">
@@ -947,19 +954,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
@@ -968,14 +975,14 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="G2" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -984,7 +991,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,10 +1014,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -1032,7 +1039,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1045,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -1069,7 +1076,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -1082,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -1106,7 +1113,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1119,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>21</v>
       </c>
@@ -1143,7 +1150,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -1156,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1174,7 +1181,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1187,12 +1194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="21">
@@ -1209,19 +1216,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
@@ -1230,14 +1237,14 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="G2" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1246,7 +1253,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1288,7 +1295,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -1301,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1325,7 +1332,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -1338,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1362,7 +1369,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1375,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1399,7 +1406,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -1412,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1434,7 +1441,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1447,12 +1454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="21">
@@ -1469,19 +1476,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
@@ -1490,14 +1497,14 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="G2" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1506,7 +1513,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,10 +1536,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1556,7 +1563,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1569,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1593,7 +1600,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -1606,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1630,7 +1637,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1643,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1667,7 +1674,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -1680,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1694,7 +1701,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -1707,12 +1714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="21">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,7 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,6 +350,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -654,7 +657,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -663,33 +666,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28">
+      <c r="H2" s="25"/>
+      <c r="I2" s="27">
         <v>43000</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -710,10 +713,10 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -736,28 +739,28 @@
       <c r="G6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>7</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="24">
+      <c r="H7" s="17"/>
+      <c r="I7" s="33">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
@@ -784,27 +787,27 @@
       <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>825</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>825</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>1650</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="24">
+      <c r="H9" s="17"/>
+      <c r="I9" s="33">
         <f>B9+C9+D9+E9+F9</f>
         <v>3300</v>
       </c>
@@ -828,30 +831,30 @@
       <c r="G10" s="6">
         <v>20</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>21</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>709.5</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
         <v>5008.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>1197</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24">
+      <c r="H11" s="17"/>
+      <c r="I11" s="33">
         <f>B11+C11+D11+E11+F11</f>
         <v>6915</v>
       </c>
@@ -875,66 +878,70 @@
       <c r="G12" s="6">
         <v>27</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>28</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>825</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
         <v>412.5</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12">
+        <v>247.5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="24">
+      <c r="H13" s="17"/>
+      <c r="I13" s="33">
         <f>B13+C13+D13+E13+F13</f>
-        <v>1237.5</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>29</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="24">
+      <c r="H15" s="17"/>
+      <c r="I15" s="33">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="23"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21">
+      <c r="H17" s="19"/>
+      <c r="I17" s="36">
         <f>I7+I9+I11+I13+I15</f>
-        <v>11452.5</v>
+        <v>11700</v>
       </c>
     </row>
   </sheetData>
@@ -960,29 +967,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1003,10 +1010,10 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1024,23 +1031,23 @@
       <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>6</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="24">
+      <c r="H7" s="17"/>
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
@@ -1061,23 +1068,23 @@
       <c r="F8" s="7">
         <v>11</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>12</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>13</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="24">
+      <c r="H9" s="17"/>
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
@@ -1098,23 +1105,23 @@
       <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>19</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24">
+      <c r="H11" s="17"/>
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
@@ -1135,23 +1142,23 @@
       <c r="F12" s="7">
         <v>25</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>26</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>27</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="24">
+      <c r="H13" s="17"/>
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
@@ -1169,33 +1176,33 @@
       <c r="E14" s="5">
         <v>31</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="24">
+      <c r="H15" s="17"/>
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="23"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21">
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>
@@ -1222,29 +1229,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1265,38 +1272,38 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="4"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>3</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="10"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="24">
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
@@ -1317,23 +1324,23 @@
       <c r="F8" s="7">
         <v>8</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>9</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>10</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="24">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
@@ -1354,23 +1361,23 @@
       <c r="F10" s="5">
         <v>15</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>16</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>17</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="24">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
@@ -1391,23 +1398,23 @@
       <c r="F12" s="7">
         <v>22</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>23</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>24</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="24">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
@@ -1428,34 +1435,34 @@
       <c r="F14" s="5">
         <v>29</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>30</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="24">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="23"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21">
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>
@@ -1482,29 +1489,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1525,10 +1532,10 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1548,23 +1555,23 @@
       <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>7</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>8</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="29"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="24">
+      <c r="H7" s="17"/>
+      <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
@@ -1585,23 +1592,23 @@
       <c r="F8" s="7">
         <v>13</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>14</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>15</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="24">
+      <c r="H9" s="17"/>
+      <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
@@ -1622,23 +1629,23 @@
       <c r="F10" s="5">
         <v>20</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>21</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>22</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24">
+      <c r="H11" s="17"/>
+      <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
@@ -1659,23 +1666,23 @@
       <c r="F12" s="7">
         <v>27</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>28</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>29</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="24">
+      <c r="H13" s="17"/>
+      <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
@@ -1687,35 +1694,35 @@
       <c r="C14" s="5">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="24">
+      <c r="H15" s="17"/>
+      <c r="I15" s="23">
         <f>B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="I16" s="23"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21">
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
         <v>0</v>
       </c>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
     <t>EJECUTIVO DE VENTAS:</t>
   </si>
   <si>
-    <t>Alma Yesenia Garcia Enriquez</t>
-  </si>
-  <si>
     <t>META COMISIONABLE:</t>
   </si>
   <si>
@@ -66,17 +63,20 @@
   <si>
     <t>MAYO</t>
   </si>
+  <si>
+    <t>Judith Adriana Jaramillo Chávez</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +347,13 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -366,6 +366,11 @@
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,6 +449,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -478,6 +484,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,48 +660,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="G2" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="27">
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -744,7 +751,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>0</v>
@@ -760,12 +767,12 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -787,9 +794,9 @@
       <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>825</v>
       </c>
@@ -807,12 +814,12 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <f>B9+C9+D9+E9+F9</f>
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -834,9 +841,9 @@
       <c r="H10" s="17">
         <v>21</v>
       </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -854,12 +861,12 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <f>B11+C11+D11+E11+F11</f>
         <v>6915</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -881,9 +888,9 @@
       <c r="H12" s="17">
         <v>28</v>
       </c>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>825</v>
       </c>
@@ -901,12 +908,12 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f>B13+C13+D13+E13+F13</f>
         <v>1485</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -916,32 +923,34 @@
       <c r="F14" s="15"/>
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="13"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>297</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <f>B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <f>I7+I9+I11+I13+I15</f>
-        <v>11700</v>
+        <v>11997</v>
       </c>
     </row>
   </sheetData>
@@ -954,19 +963,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -975,23 +984,23 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="G2" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,10 +1023,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -1039,7 +1048,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1052,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -1076,7 +1085,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1089,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -1113,7 +1122,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1126,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>21</v>
       </c>
@@ -1150,7 +1159,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1163,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1181,7 +1190,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1194,12 +1203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
@@ -1216,19 +1225,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1237,23 +1246,23 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="G2" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1295,7 +1304,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1308,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1345,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1369,7 +1378,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1382,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1406,7 +1415,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1419,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1441,7 +1450,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1454,12 +1463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
@@ -1476,19 +1485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1497,23 +1506,23 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="G2" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1563,7 +1572,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1576,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1600,7 +1609,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1637,7 +1646,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1674,7 +1683,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1687,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1701,7 +1710,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1714,12 +1723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -70,13 +70,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -484,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,19 +658,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -690,7 +688,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
@@ -701,7 +699,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -751,7 +749,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>0</v>
@@ -772,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -796,7 +794,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11">
         <v>825</v>
       </c>
@@ -819,7 +817,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -843,7 +841,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -866,7 +864,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -890,7 +888,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11">
         <v>825</v>
       </c>
@@ -913,7 +911,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -925,7 +923,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13">
         <v>297</v>
       </c>
@@ -940,10 +938,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -963,19 +961,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -989,7 +987,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +998,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -1048,7 +1046,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1061,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -1085,7 +1083,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1098,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -1122,7 +1120,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1135,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>21</v>
       </c>
@@ -1159,7 +1157,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1172,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1190,7 +1188,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1203,10 +1201,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1225,19 +1223,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1249,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1260,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1304,7 +1302,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1317,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1341,7 +1339,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1354,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1378,7 +1376,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1391,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1415,7 +1413,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1428,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1450,7 +1448,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1463,10 +1461,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1485,19 +1483,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1509,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1520,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1572,7 +1570,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1585,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1609,7 +1607,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1622,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1646,7 +1644,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1659,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1683,7 +1681,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1696,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1710,7 +1708,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1723,10 +1721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="FEBRERO" sheetId="1" r:id="rId1"/>
-    <sheet name="MARZO" sheetId="2" r:id="rId2"/>
+    <sheet name="MARZO" sheetId="2" r:id="rId1"/>
+    <sheet name="FEBRERO" sheetId="1" r:id="rId2"/>
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>L</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>Judith Adriana Jaramillo Chávez</t>
+  </si>
+  <si>
+    <t>24 santa</t>
+  </si>
+  <si>
+    <t>25 santa</t>
+  </si>
+  <si>
+    <t>26 santa</t>
+  </si>
+  <si>
+    <t>Meta Semanal</t>
+  </si>
+  <si>
+    <t>21 festivo</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +219,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -270,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +381,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -659,10 +694,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="42">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="B4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>6</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="23">
+        <f>B7+C7+D7+E7+F7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="23">
+        <f>B9+C9+D9+E9+F9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="39">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15">
+        <v>20</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="23">
+        <f>B11+C11+D11+E11+F11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="15">
+        <v>27</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23">
+        <f>B13+C13+D13+E13+F13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="39">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="5">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23">
+        <f>B15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" s="22"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="7:10" ht="15.75">
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
+        <f>I7+I9+I11+I13+I15</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="41">
+        <f>J7+J9+J11+J13+J15</f>
+        <v>41000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -957,268 +1287,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>6</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="23">
-        <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7">
-        <v>11</v>
-      </c>
-      <c r="G8" s="15">
-        <v>12</v>
-      </c>
-      <c r="H8" s="15">
-        <v>13</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="23">
-        <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="5">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15">
-        <v>19</v>
-      </c>
-      <c r="H10" s="15">
-        <v>20</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="23">
-        <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="7">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15">
-        <v>26</v>
-      </c>
-      <c r="H12" s="15">
-        <v>27</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="23">
-        <f>B13+C13+D13+E13+F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="5">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5">
-        <v>31</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="23">
-        <f>B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20">
-        <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -85,13 +85,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,9 +378,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,6 +386,9 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -484,6 +484,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -518,6 +519,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,20 +695,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -720,22 +722,22 @@
         <v>9</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="I2" s="42">
+      <c r="I2" s="41">
         <v>41000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,11 +762,11 @@
       <c r="I5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -785,9 +787,9 @@
         <v>6</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -799,11 +801,11 @@
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>8200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -826,25 +828,29 @@
         <v>13</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="12">
+        <v>825</v>
+      </c>
+      <c r="D9" s="11">
+        <v>297</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="39">
+        <v>1122</v>
+      </c>
+      <c r="J9" s="38">
         <v>10250</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -867,9 +873,9 @@
         <v>20</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -881,11 +887,11 @@
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <v>10250</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -908,9 +914,9 @@
         <v>27</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -922,11 +928,11 @@
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="38">
         <v>4100</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -943,9 +949,9 @@
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -957,24 +963,24 @@
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="38">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="7:10" ht="15.75">
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="41">
+        <v>1122</v>
+      </c>
+      <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>41000</v>
       </c>
@@ -988,19 +994,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1018,18 +1024,18 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1079,7 +1085,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>0</v>
@@ -1100,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>825</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1171,7 +1177,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>825</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1253,7 +1259,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>297</v>
       </c>
@@ -1268,10 +1274,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1291,19 +1297,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1317,18 +1323,18 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1370,7 +1376,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1420,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1444,7 +1450,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1494,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1516,7 +1522,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1529,10 +1535,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1551,19 +1557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1577,18 +1583,18 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1638,7 +1644,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1651,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1675,7 +1681,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1688,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1712,7 +1718,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1725,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1749,7 +1755,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1762,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1776,7 +1782,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1789,10 +1795,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,12 +839,14 @@
         <v>297</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>1429.5</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>1122</v>
+        <v>2551.5</v>
       </c>
       <c r="J9" s="38">
         <v>10250</v>
@@ -978,7 +980,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>1122</v>
+        <v>2551.5</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>L</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>21 festivo</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>porcentaje del total de venta</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -293,11 +305,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +391,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,10 +399,19 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -706,7 +725,7 @@
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -720,22 +739,22 @@
         <v>9</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="I2" s="42">
+      <c r="I2" s="41">
         <v>41000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="B4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,11 +779,14 @@
       <c r="I5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -785,9 +807,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="37"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -799,11 +822,15 @@
         <f>B7+C7+D7+E7+F7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>8200</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="44">
+        <f>I7*100/J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -826,25 +853,36 @@
         <v>13</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="39"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="12">
+        <v>825</v>
+      </c>
+      <c r="D9" s="11">
+        <v>297</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>2446.5</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="39">
+        <v>3568.5</v>
+      </c>
+      <c r="J9" s="38">
         <v>10250</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="44">
+        <f>I9*100/J9</f>
+        <v>34.814634146341461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -867,9 +905,10 @@
         <v>20</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="39"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -881,11 +920,12 @@
         <f>B11+C11+D11+E11+F11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <v>10250</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -908,9 +948,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="39"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -922,11 +963,12 @@
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="38">
         <v>4100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -943,9 +985,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="39"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -957,26 +1000,38 @@
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="38">
         <v>8200</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="I16" s="22"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="7:10" ht="15.75">
+      <c r="J16" s="39"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+    </row>
+    <row r="17" spans="7:12" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="41">
+        <v>3568.5</v>
+      </c>
+      <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>41000</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="46">
+        <f>I17*100/J17</f>
+        <v>8.7036585365853654</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1019,15 +1074,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1271,7 +1326,7 @@
     <row r="16" spans="1:9">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:10" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1279,6 +1334,9 @@
       <c r="I17" s="35">
         <f>I7+I9+I11+I13+I15</f>
         <v>11997</v>
+      </c>
+      <c r="J17">
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>
@@ -1318,15 +1376,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1578,15 +1636,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>Porcentaje</t>
   </si>
   <si>
-    <t>porcentaje del total de venta</t>
+    <t>Porcentaje Meta de Venta</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,12 +399,25 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,14 +728,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
@@ -744,15 +758,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -782,7 +796,7 @@
       <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -808,14 +822,22 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="43"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
       <c r="I7" s="23">
@@ -825,8 +847,8 @@
       <c r="J7" s="38">
         <v>8200</v>
       </c>
-      <c r="K7" s="44">
-        <f>I7*100/J7</f>
+      <c r="K7" s="42">
+        <f>(I7*100)/J7</f>
         <v>0</v>
       </c>
     </row>
@@ -854,17 +876,21 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="43"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
       <c r="C9" s="12">
         <v>825</v>
       </c>
       <c r="D9" s="11">
         <v>297</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
       <c r="F9" s="11">
         <v>2446.5</v>
       </c>
@@ -877,9 +903,9 @@
       <c r="J9" s="38">
         <v>10250</v>
       </c>
-      <c r="K9" s="44">
-        <f>I9*100/J9</f>
-        <v>34.814634146341461</v>
+      <c r="K9" s="46">
+        <f>((I9+I7)*100)/(J7+J9)</f>
+        <v>19.341463414634145</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -906,24 +932,37 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="43"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>297</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>975</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
       <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="J11" s="38">
         <v>10250</v>
       </c>
-      <c r="K11" s="44"/>
+      <c r="K11" s="46">
+        <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
+        <v>16.865853658536587</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="4" t="s">
@@ -949,10 +988,12 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="43"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="14"/>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
@@ -966,7 +1007,10 @@
       <c r="J13" s="38">
         <v>4100</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46">
+        <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
+        <v>14.757621951219512</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="5">
@@ -986,7 +1030,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="43"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="13"/>
@@ -1003,40 +1047,46 @@
       <c r="J15" s="38">
         <v>8200</v>
       </c>
-      <c r="K15" s="44"/>
+      <c r="K15" s="46">
+        <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
+        <v>11.80609756097561</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="I16" s="22"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="45" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-    </row>
-    <row r="17" spans="7:12" ht="15.75">
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>3568.5</v>
+        <v>4840.5</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>41000</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="46">
+      <c r="K17" s="47"/>
+      <c r="L17" s="50">
         <f>I17*100/J17</f>
-        <v>8.7036585365853654</v>
-      </c>
+        <v>11.80609756097561</v>
+      </c>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="L17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1046,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1074,15 +1124,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1376,15 +1426,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1636,15 +1686,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -400,9 +400,6 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,6 +408,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,7 +729,7 @@
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -758,15 +758,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -796,7 +796,7 @@
       <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="9"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="11">
@@ -903,7 +903,7 @@
       <c r="J9" s="38">
         <v>10250</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="45">
         <f>((I9+I7)*100)/(J7+J9)</f>
         <v>19.341463414634145</v>
       </c>
@@ -932,7 +932,7 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="13">
@@ -959,7 +959,7 @@
       <c r="J11" s="38">
         <v>10250</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="45">
         <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
         <v>16.865853658536587</v>
       </c>
@@ -988,13 +988,15 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="45"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="14">
         <v>0</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>1017</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1002,14 +1004,14 @@
       <c r="H13" s="17"/>
       <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="J13" s="38">
         <v>4100</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="45">
         <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
-        <v>14.757621951219512</v>
+        <v>17.858231707317074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1030,7 +1032,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="13"/>
@@ -1047,20 +1049,20 @@
       <c r="J15" s="38">
         <v>8200</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="45">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>11.80609756097561</v>
+        <v>14.286585365853659</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="I16" s="22"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48" t="s">
+      <c r="K16" s="46"/>
+      <c r="L16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1069,16 +1071,16 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>4840.5</v>
+        <v>5857.5</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>41000</v>
       </c>
-      <c r="K17" s="47"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="50">
         <f>I17*100/J17</f>
-        <v>11.80609756097561</v>
+        <v>14.286585365853659</v>
       </c>
       <c r="M17" s="51"/>
       <c r="N17" s="52"/>
@@ -1124,15 +1126,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1426,15 +1428,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1686,15 +1688,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -91,13 +91,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,7 +424,7 @@
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,6 +516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -550,6 +551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,21 +727,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -757,7 +759,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>12</v>
       </c>
@@ -768,7 +770,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -824,7 +826,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>0</v>
@@ -852,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -878,7 +880,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>0</v>
       </c>
@@ -908,7 +910,7 @@
         <v>19.341463414634145</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -934,7 +936,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -964,7 +966,7 @@
         <v>16.865853658536587</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -990,7 +992,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>0</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>17.858231707317074</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1034,8 +1036,11 @@
       <c r="J14" s="39"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <f>2511.5+297</f>
+        <v>2808.5</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1044,17 +1049,17 @@
       <c r="H15" s="17"/>
       <c r="I15" s="23">
         <f>B15</f>
-        <v>0</v>
+        <v>2808.5</v>
       </c>
       <c r="J15" s="38">
         <v>8200</v>
       </c>
       <c r="K15" s="45">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>14.286585365853659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>21.136585365853659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
       <c r="J16" s="39"/>
       <c r="K16" s="46"/>
@@ -1064,14 +1069,14 @@
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
     </row>
-    <row r="17" spans="7:14" ht="15.75">
+    <row r="17" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>5857.5</v>
+        <v>8666</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
@@ -1080,7 +1085,7 @@
       <c r="K17" s="46"/>
       <c r="L17" s="50">
         <f>I17*100/J17</f>
-        <v>14.286585365853659</v>
+        <v>21.136585365853659</v>
       </c>
       <c r="M17" s="51"/>
       <c r="N17" s="52"/>
@@ -1095,19 +1100,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1141,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1186,7 +1191,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>0</v>
@@ -1207,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1231,7 +1236,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>825</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1278,7 +1283,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1325,7 +1330,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>825</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>297</v>
       </c>
@@ -1375,10 +1380,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:10" ht="15.75">
+    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1401,19 +1406,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1432,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1443,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1480,7 +1485,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1493,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1517,7 +1522,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1530,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1554,7 +1559,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1567,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1591,7 +1596,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1604,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1626,7 +1631,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1639,10 +1644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1661,19 +1666,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1692,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1748,7 +1753,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1761,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1785,7 +1790,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1798,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1822,7 +1827,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1835,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1859,7 +1864,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1872,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1886,7 +1891,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1899,10 +1904,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -310,7 +310,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,7 +730,7 @@
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -758,15 +759,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -801,6 +802,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6">
+        <v>9</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -826,18 +830,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="9"/>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
       <c r="I7" s="23">
@@ -853,6 +849,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8">
+        <v>10</v>
+      </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -879,18 +878,14 @@
       <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="12">
         <v>825</v>
       </c>
       <c r="D9" s="11">
         <v>297</v>
       </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="11">
         <v>2446.5</v>
       </c>
@@ -909,6 +904,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="A10">
+        <v>11</v>
+      </c>
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -935,18 +933,12 @@
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13">
         <v>297</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="13">
         <v>975</v>
       </c>
@@ -965,6 +957,9 @@
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12">
+        <v>12</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -991,9 +986,7 @@
       <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="12">
         <v>1017</v>
       </c>
@@ -1015,6 +1008,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1042,8 +1038,8 @@
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="23">
-        <f>B15</f>
+      <c r="I15" s="49">
+        <f>B15+C15+D15+E15</f>
         <v>0</v>
       </c>
       <c r="J15" s="38">
@@ -1078,12 +1074,12 @@
         <v>41000</v>
       </c>
       <c r="K17" s="46"/>
-      <c r="L17" s="50">
+      <c r="L17" s="51">
         <f>I17*100/J17</f>
         <v>14.286585365853659</v>
       </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1099,7 +1095,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1126,15 +1122,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1163,6 +1159,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1208,6 +1207,9 @@
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1255,6 +1257,9 @@
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1302,6 +1307,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1349,6 +1357,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1428,15 +1439,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1688,15 +1699,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
@@ -12,7 +12,7 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -91,13 +91,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,11 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,6 +518,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -551,6 +553,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,21 +729,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -758,7 +761,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
@@ -769,7 +772,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -828,7 +831,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12">
         <v>825</v>
@@ -903,7 +906,7 @@
         <v>19.341463414634145</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -932,7 +935,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
@@ -956,7 +959,7 @@
         <v>16.865853658536587</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -985,7 +988,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="12">
         <v>1017</v>
@@ -1007,7 +1010,7 @@
         <v>17.858231707317074</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1030,27 +1033,31 @@
       <c r="J14" s="39"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>2808.5</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>297</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
       <c r="I15" s="49">
         <f>B15+C15+D15+E15</f>
-        <v>0</v>
+        <v>3105.5</v>
       </c>
       <c r="J15" s="38">
         <v>8200</v>
       </c>
       <c r="K15" s="45">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>14.286585365853659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>21.860975609756096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
       <c r="J16" s="39"/>
       <c r="K16" s="46"/>
@@ -1060,14 +1067,14 @@
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
     </row>
-    <row r="17" spans="7:14" ht="15.75">
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>5857.5</v>
+        <v>8963</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
@@ -1076,10 +1083,13 @@
       <c r="K17" s="46"/>
       <c r="L17" s="51">
         <f>I17*100/J17</f>
-        <v>14.286585365853659</v>
+        <v>21.860975609756096</v>
       </c>
       <c r="M17" s="52"/>
       <c r="N17" s="53"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1091,19 +1101,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1142,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1185,7 +1195,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>0</v>
@@ -1206,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1233,7 +1243,7 @@
       </c>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>825</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1283,7 +1293,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>0</v>
       </c>
@@ -1306,7 +1316,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1333,7 +1343,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>825</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1371,7 +1381,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>297</v>
       </c>
@@ -1386,10 +1396,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="7:10" ht="15.75">
+    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1412,19 +1422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1448,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>13</v>
       </c>
@@ -1449,7 +1459,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1491,7 +1501,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1504,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1528,7 +1538,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1541,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>11</v>
       </c>
@@ -1565,7 +1575,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1578,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>18</v>
       </c>
@@ -1602,7 +1612,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1615,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>25</v>
       </c>
@@ -1637,7 +1647,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1650,10 +1660,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1672,19 +1682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1708,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1719,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1759,7 +1769,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1772,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -1796,7 +1806,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -1809,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1833,7 +1843,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1846,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>23</v>
       </c>
@@ -1870,7 +1880,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1883,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1897,7 +1907,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1910,10 +1920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -409,6 +409,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,7 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -733,7 +733,7 @@
   <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,15 +762,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1041,20 +1041,22 @@
       <c r="D15" s="13">
         <v>297</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <v>1284</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
       <c r="I15" s="49">
         <f>B15+C15+D15+E15</f>
-        <v>3105.5</v>
+        <v>4389.5</v>
       </c>
       <c r="J15" s="38">
         <v>8200</v>
       </c>
       <c r="K15" s="45">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>21.860975609756096</v>
+        <v>24.992682926829268</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1074,22 +1076,22 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>8963</v>
+        <v>10247</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
         <v>41000</v>
       </c>
       <c r="K17" s="46"/>
-      <c r="L17" s="51">
+      <c r="L17" s="52">
         <f>I17*100/J17</f>
-        <v>21.860975609756096</v>
-      </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
+        <v>24.992682926829268</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
+      <c r="B18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1132,15 +1134,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1449,15 +1451,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1709,15 +1711,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -733,7 +733,7 @@
   <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MARZO" sheetId="2" r:id="rId1"/>
-    <sheet name="FEBRERO" sheetId="1" r:id="rId2"/>
+    <sheet name="FEBRERO" sheetId="1" r:id="rId1"/>
+    <sheet name="MARZO" sheetId="2" r:id="rId2"/>
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -730,10 +730,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="32">
+        <f>B7+C7+D7+E7+F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6">
+        <v>14</v>
+      </c>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>825</v>
+      </c>
+      <c r="C9" s="12">
+        <v>825</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1650</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="32">
+        <f>B9+C9+D9+E9+F9</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17">
+        <v>21</v>
+      </c>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>709.5</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5008.5</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1197</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="32">
+        <f>B11+C11+D11+E11+F11</f>
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6">
+        <v>27</v>
+      </c>
+      <c r="H12" s="17">
+        <v>28</v>
+      </c>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>825</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>412.5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>247.5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="32">
+        <f>B13+C13+D13+E13+F13</f>
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>297</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="32">
+        <f>B15</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="35">
+        <f>I7+I9+I11+I13+I15</f>
+        <v>11997</v>
+      </c>
+      <c r="J17">
+        <v>27.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1347,9 @@
       <c r="E14" s="5">
         <v>31</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
@@ -1044,19 +1367,21 @@
       <c r="E15" s="13">
         <v>1284</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14">
+        <v>2034</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
       <c r="I15" s="49">
-        <f>B15+C15+D15+E15</f>
-        <v>4389.5</v>
+        <f>B15+C15+D15+E15+F15</f>
+        <v>6423.5</v>
       </c>
       <c r="J15" s="38">
         <v>8200</v>
       </c>
       <c r="K15" s="45">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>24.992682926829268</v>
+        <v>29.953658536585365</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1076,7 +1401,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>10247</v>
+        <v>12281</v>
       </c>
       <c r="J17" s="40">
         <f>J7+J9+J11+J13+J15</f>
@@ -1085,7 +1410,7 @@
       <c r="K17" s="46"/>
       <c r="L17" s="52">
         <f>I17*100/J17</f>
-        <v>24.992682926829268</v>
+        <v>29.953658536585365</v>
       </c>
       <c r="M17" s="53"/>
       <c r="N17" s="54"/>
@@ -1099,327 +1424,6 @@
     <mergeCell ref="L17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="27">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>6</v>
-      </c>
-      <c r="H6" s="17">
-        <v>7</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="32">
-        <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6">
-        <v>14</v>
-      </c>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>825</v>
-      </c>
-      <c r="C9" s="12">
-        <v>825</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1650</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="32">
-        <f>B9+C9+D9+E9+F9</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6">
-        <v>20</v>
-      </c>
-      <c r="H10" s="17">
-        <v>21</v>
-      </c>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
-        <v>709.5</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5008.5</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1197</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="32">
-        <f>B11+C11+D11+E11+F11</f>
-        <v>6915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6">
-        <v>27</v>
-      </c>
-      <c r="H12" s="17">
-        <v>28</v>
-      </c>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>825</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>412.5</v>
-      </c>
-      <c r="E13" s="12">
-        <v>247.5</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="32">
-        <f>B13+C13+D13+E13+F13</f>
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5">
-        <v>29</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
-        <v>297</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="32">
-        <f>B15</f>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="35">
-        <f>I7+I9+I11+I13+I15</f>
-        <v>11997</v>
-      </c>
-      <c r="J17">
-        <v>27.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="11655" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="1" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,12 +1512,14 @@
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>2034</v>
+      </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
       <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1545,8 +1547,12 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11">
+        <v>1429.5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1617</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
@@ -1554,7 +1560,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
+        <v>3046.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1676,7 +1682,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
+        <v>5080.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1432,7 +1432,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,14 +1553,16 @@
       <c r="C9" s="12">
         <v>1617</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>825</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>3046.5</v>
+        <v>3871.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,7 +1684,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>5080.5</v>
+        <v>5905.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
+++ b/Documentos Adicionales/Ventas Adriana Jaramillo.xlsx
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" activeCellId="4" sqref="F7 B9 C9 D9 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,15 +1554,17 @@
         <v>1617</v>
       </c>
       <c r="D9" s="11">
-        <v>825</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>2412</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1314</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="23">
         <f>B9+C9+D9+E9+F9</f>
-        <v>3871.5</v>
+        <v>6772.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1684,7 +1686,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>5905.5</v>
+        <v>8806.5</v>
       </c>
     </row>
   </sheetData>
